--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E510E677-9E2E-E64B-B706-302294C0AA6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{213E329B-1061-D049-AEB8-FAAC76DE9DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Week</t>
   </si>
@@ -91,46 +91,52 @@
     <t>Computational Linguistics: Overview</t>
   </si>
   <si>
-    <t>Sentiment Analysis</t>
-  </si>
-  <si>
     <t>Midterm Exam</t>
   </si>
   <si>
-    <t>Computational Text Analytics Pipeline</t>
-  </si>
-  <si>
-    <t>Programming Fundamentals</t>
-  </si>
-  <si>
     <t>Deep Learning NLP (Embeddings)</t>
   </si>
   <si>
-    <t>Deep Learning NLP (LSTM)</t>
-  </si>
-  <si>
     <t>Deep Learning NLP (BERT)</t>
   </si>
   <si>
     <t>Machine Learning Basics</t>
   </si>
   <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Classification (Naïve Byes)</t>
-  </si>
-  <si>
-    <t>Classification (Logistic Regression)</t>
-  </si>
-  <si>
-    <t>Text Classification</t>
-  </si>
-  <si>
-    <t>Text Similarity and Clustering</t>
-  </si>
-  <si>
     <t>Toxicity Detection</t>
+  </si>
+  <si>
+    <t>Quiz on Python Basics + NPL Pipeline</t>
+  </si>
+  <si>
+    <t>NPL Pipeline</t>
+  </si>
+  <si>
+    <t>Regression and Classification Problems</t>
+  </si>
+  <si>
+    <t>Feature Engineering and Text Vectorization</t>
+  </si>
+  <si>
+    <t>Text Clustering and Topic Modeling</t>
+  </si>
+  <si>
+    <t>Senitment Analysis</t>
+  </si>
+  <si>
+    <t>Deep Learning NLP (Doc2Vec)</t>
+  </si>
+  <si>
+    <t>Deep Learning NLP (RNN/LSTM)</t>
+  </si>
+  <si>
+    <t>Deep Learning NLP (Seq2Seq)</t>
+  </si>
+  <si>
+    <t>Explainable AI</t>
+  </si>
+  <si>
+    <t>Prospect of Linguistics in AI NLP</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1001,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1031,7 +1037,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1040,7 +1046,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1048,8 +1054,8 @@
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1059,7 +1065,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1068,7 +1074,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1077,7 +1083,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1086,7 +1092,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1095,7 +1101,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1104,7 +1110,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1114,7 +1120,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1133,7 +1139,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="1"/>
@@ -1143,7 +1149,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="1"/>
@@ -1153,8 +1159,8 @@
         <v>18</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1163,8 +1169,8 @@
         <v>19</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1173,7 +1179,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{213E329B-1061-D049-AEB8-FAAC76DE9DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C89052E-E6ED-8F4D-BEE2-4F887238E52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C89052E-E6ED-8F4D-BEE2-4F887238E52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EA9B0B-A2FA-734B-A735-64E93453ED2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -100,21 +100,12 @@
     <t>Deep Learning NLP (BERT)</t>
   </si>
   <si>
-    <t>Machine Learning Basics</t>
-  </si>
-  <si>
-    <t>Toxicity Detection</t>
-  </si>
-  <si>
     <t>Quiz on Python Basics + NPL Pipeline</t>
   </si>
   <si>
     <t>NPL Pipeline</t>
   </si>
   <si>
-    <t>Regression and Classification Problems</t>
-  </si>
-  <si>
     <t>Feature Engineering and Text Vectorization</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>Deep Learning NLP (Doc2Vec)</t>
   </si>
   <si>
-    <t>Deep Learning NLP (RNN/LSTM)</t>
-  </si>
-  <si>
     <t>Deep Learning NLP (Seq2Seq)</t>
   </si>
   <si>
@@ -137,6 +125,18 @@
   </si>
   <si>
     <t>Prospect of Linguistics in AI NLP</t>
+  </si>
+  <si>
+    <t>Deep Learning NLP (RNN/LSTM and Neural Language Model)</t>
+  </si>
+  <si>
+    <t>Neural Network: A Primer</t>
+  </si>
+  <si>
+    <t>Machine Learning Basics: Regression and Classification</t>
+  </si>
+  <si>
+    <t>Naïve Bayes, Logistic Regression</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EA9B0B-A2FA-734B-A735-64E93453ED2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A15AE6-3EEF-E843-B123-F639C6D4BBE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Week</t>
   </si>
@@ -88,21 +88,9 @@
     <t>Final Exam</t>
   </si>
   <si>
-    <t>Computational Linguistics: Overview</t>
-  </si>
-  <si>
     <t>Midterm Exam</t>
   </si>
   <si>
-    <t>Deep Learning NLP (Embeddings)</t>
-  </si>
-  <si>
-    <t>Deep Learning NLP (BERT)</t>
-  </si>
-  <si>
-    <t>Quiz on Python Basics + NPL Pipeline</t>
-  </si>
-  <si>
     <t>NPL Pipeline</t>
   </si>
   <si>
@@ -115,21 +103,6 @@
     <t>Senitment Analysis</t>
   </si>
   <si>
-    <t>Deep Learning NLP (Doc2Vec)</t>
-  </si>
-  <si>
-    <t>Deep Learning NLP (Seq2Seq)</t>
-  </si>
-  <si>
-    <t>Explainable AI</t>
-  </si>
-  <si>
-    <t>Prospect of Linguistics in AI NLP</t>
-  </si>
-  <si>
-    <t>Deep Learning NLP (RNN/LSTM and Neural Language Model)</t>
-  </si>
-  <si>
     <t>Neural Network: A Primer</t>
   </si>
   <si>
@@ -137,6 +110,30 @@
   </si>
   <si>
     <t>Naïve Bayes, Logistic Regression</t>
+  </si>
+  <si>
+    <t>Computational Linguistics Overview + Python Quiz</t>
+  </si>
+  <si>
+    <t>Deep Learning NLP and Word/Doc Embeddings</t>
+  </si>
+  <si>
+    <t>Transformer, BERT, and Transfer Learning</t>
+  </si>
+  <si>
+    <t>Explainable AI and Prospect of Linguistics</t>
+  </si>
+  <si>
+    <t>Sequence Model I: RNN and Neural Language Model</t>
+  </si>
+  <si>
+    <t>Sequence Model II: LSTM and GRU</t>
+  </si>
+  <si>
+    <t>Sequence Model III: Sequence-to-Sequence Model</t>
+  </si>
+  <si>
+    <t>Seqeunce Model IV: Attention</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1025,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1037,7 +1034,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,7 +1043,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1055,7 +1052,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1065,7 +1062,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1074,7 +1071,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,7 +1080,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1092,7 +1089,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1101,7 +1098,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1110,7 +1107,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1120,7 +1117,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1130,7 +1127,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1150,7 +1147,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1160,7 +1157,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1170,7 +1167,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1179,7 +1176,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A15AE6-3EEF-E843-B123-F639C6D4BBE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE02E2F-9F8C-554E-BEC9-434E6ABBEDA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Transformer, BERT, and Transfer Learning</t>
   </si>
   <si>
-    <t>Explainable AI and Prospect of Linguistics</t>
-  </si>
-  <si>
     <t>Sequence Model I: RNN and Neural Language Model</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Seqeunce Model IV: Attention</t>
+  </si>
+  <si>
+    <t>Explainable AI and Prospect of Linguistics (LIME, Structural Probing)</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE02E2F-9F8C-554E-BEC9-434E6ABBEDA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12258CD9-19D8-F64E-86E4-15FD30D88922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>Midterm Exam</t>
   </si>
   <si>
-    <t>NPL Pipeline</t>
-  </si>
-  <si>
     <t>Feature Engineering and Text Vectorization</t>
   </si>
   <si>
@@ -134,13 +131,16 @@
   </si>
   <si>
     <t>Explainable AI and Prospect of Linguistics (LIME, Structural Probing)</t>
+  </si>
+  <si>
+    <t>NLP Pipeline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,16 +998,16 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="58" customWidth="1"/>
     <col min="4" max="4" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,80 +1019,80 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1101,85 +1101,85 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvinchen\Dropbox\NTNU\ComputationalLinguistics\NTNU_ENC2045\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12258CD9-19D8-F64E-86E4-15FD30D88922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3F6AE8-3DAA-4F7A-80BD-5A18EFB3ABAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="22395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Deep Learning NLP and Word/Doc Embeddings</t>
   </si>
   <si>
-    <t>Transformer, BERT, and Transfer Learning</t>
-  </si>
-  <si>
     <t>Sequence Model I: RNN and Neural Language Model</t>
   </si>
   <si>
@@ -130,17 +127,20 @@
     <t>Seqeunce Model IV: Attention</t>
   </si>
   <si>
-    <t>Explainable AI and Prospect of Linguistics (LIME, Structural Probing)</t>
-  </si>
-  <si>
     <t>NLP Pipeline</t>
+  </si>
+  <si>
+    <t>Project-based Assignment</t>
+  </si>
+  <si>
+    <t>Transformer, BERT, Transfer Learning, and Explainable AI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,17 +997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1028,110 +1028,110 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1151,26 +1151,26 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,13 +1179,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvinchen\Dropbox\NTNU\ComputationalLinguistics\NTNU_ENC2045\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3F6AE8-3DAA-4F7A-80BD-5A18EFB3ABAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1F398A-7569-0041-A244-9FDF49C1553B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="22395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -94,12 +94,6 @@
     <t>Feature Engineering and Text Vectorization</t>
   </si>
   <si>
-    <t>Text Clustering and Topic Modeling</t>
-  </si>
-  <si>
-    <t>Senitment Analysis</t>
-  </si>
-  <si>
     <t>Neural Network: A Primer</t>
   </si>
   <si>
@@ -134,6 +128,12 @@
   </si>
   <si>
     <t>Transformer, BERT, Transfer Learning, and Explainable AI</t>
+  </si>
+  <si>
+    <t>Common NLP Tasks</t>
+  </si>
+  <si>
+    <t>Spring Break</t>
   </si>
 </sst>
 </file>
@@ -997,17 +997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,173 +1019,209 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>44253</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>44260</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>44267</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>44274</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>44281</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4">
+        <v>44288</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>44295</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>44302</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>44309</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>44316</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>44323</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>44330</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>44337</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>44344</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>44351</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>44358</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>44365</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>44372</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/ComputationalLinguistics/NTNU_ENC2045/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1F398A-7569-0041-A244-9FDF49C1553B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DF2AAD-13E6-354C-A259-BD8CD5391A51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
